--- a/biology/Zoologie/Ankylosauria/Ankylosauria.xlsx
+++ b/biology/Zoologie/Ankylosauria/Ankylosauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ankylosauria (ankylosauriens en français) forment un clade ou infra-ordre éteint de dinosaures ornithischiens herbivores caractérisés par un corps massif aplati doté d'une armure reposant sur de courtes et puissantes pattes. Ils sont apparus au Jurassique inférieur et certaines espèces ont vécu jusqu'à la fin du Crétacé.
 Ils sont connus sur presque tous les continents, y compris l'Antarctique, mais à l'exception de l'Afrique.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec, ἀγκύλος / ankýlos, « rigide » et σαῦρος / saüros, « lézard » et du suffixe -ia.
 </t>
@@ -543,11 +557,13 @@
           <t>Liste de familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ankylosauridae
 Nodosauridae
-Polacanthidae ou sous-famille des Polacanthinae rattachée au Nodosauridae[2],[3],[4],[5]
+Polacanthidae ou sous-famille des Polacanthinae rattachée au Nodosauridae
 Scelidosauridae ?</t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La principale caractéristique des ankylosauriens est la présence, sur une grande partie du corps, de larges plaques osseuses dermiques, qui forment une armure caractérisant et protégeant l'animal. Ces plaques sont de forme rectangulaire ou ovale, disposées en rangées transversales ; elles présentent fréquemment une crête centrale. Des plaques de plus petite taille et des nodules se placent entre les plaques principales[6].
-Le crâne est également recouvert d'une armure, incluant une plaque à l'arrière de la mandibule. Il est de très petite taille par rapport au corps de l'animal, cette proportion n'étant encore plus faible que chez les sauropodes[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La principale caractéristique des ankylosauriens est la présence, sur une grande partie du corps, de larges plaques osseuses dermiques, qui forment une armure caractérisant et protégeant l'animal. Ces plaques sont de forme rectangulaire ou ovale, disposées en rangées transversales ; elles présentent fréquemment une crête centrale. Des plaques de plus petite taille et des nodules se placent entre les plaques principales.
+Le crâne est également recouvert d'une armure, incluant une plaque à l'arrière de la mandibule. Il est de très petite taille par rapport au corps de l'animal, cette proportion n'étant encore plus faible que chez les sauropodes.
 </t>
         </is>
       </c>
@@ -608,10 +626,12 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur corps est massif, proche du sol, porté par des membres courts et massifs. Les ankylosauriens se déplaçaient plutôt lentement à une vitesse maximale estimée à moins de 10 km/h[7].
-Ils possèdent de petites dents triangulaires semblables à celles des stégosauriens. Leurs os hyoïdes sont de grande taille, prouvant ainsi qu'ils possédaient de longues langues souples. Ils montrent aussi un grand palais secondaire latéral, ce qui signifie qu'ils pouvaient respirer tout en mâchant, contrairement aux crocodiles. Leur région intestinale élargie suggère l'existence d'un processus de fermentation pour digérer leur nourriture, en utilisant des bactéries symbiotiques et la flore intestinale. Leur régime alimentaire se composait probablement de fougères, de cycas et d'angiospermes[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur corps est massif, proche du sol, porté par des membres courts et massifs. Les ankylosauriens se déplaçaient plutôt lentement à une vitesse maximale estimée à moins de 10 km/h.
+Ils possèdent de petites dents triangulaires semblables à celles des stégosauriens. Leurs os hyoïdes sont de grande taille, prouvant ainsi qu'ils possédaient de longues langues souples. Ils montrent aussi un grand palais secondaire latéral, ce qui signifie qu'ils pouvaient respirer tout en mâchant, contrairement aux crocodiles. Leur région intestinale élargie suggère l'existence d'un processus de fermentation pour digérer leur nourriture, en utilisant des bactéries symbiotiques et la flore intestinale. Leur régime alimentaire se composait probablement de fougères, de cycas et d'angiospermes.
 </t>
         </is>
       </c>
@@ -642,20 +662,134 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Historique
-Le groupe des Ankylosauria a été créé par Henry Fairfield Osborn[1]. Dans la classification classique, dite linnéenne, ce groupe est considéré soit comme un sous-ordre, soit comme un infra-ordre. Ce sont des dinosaures ornithischiens du clade des thyréophores où ils sont placés avec les stégosauriens qui eux portent à la fois des plaques osseuses redressées sur le dos et des piques sur le corps, en particulier au bout de la queue.
-Position des Ankylosauria dans le super-ordre des Dinosauria
-Le cladogramme simplifié suivant représente seulement les taxons les plus importants[8] :
-Taxonomie des Ankylosauria
-Deux familles sont classiquement distinguées parmi les ankylosauriens, les Ankylosauridae et les Nodosauridae, auxquelles s'ajoutent diverses familles et sous-familles qui ne font pas consensus entre les paléontologues.
-Ankylosauridae
-Ankylosauridae basaux :
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe des Ankylosauria a été créé par Henry Fairfield Osborn. Dans la classification classique, dite linnéenne, ce groupe est considéré soit comme un sous-ordre, soit comme un infra-ordre. Ce sont des dinosaures ornithischiens du clade des thyréophores où ils sont placés avec les stégosauriens qui eux portent à la fois des plaques osseuses redressées sur le dos et des piques sur le corps, en particulier au bout de la queue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ankylosauria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ankylosauria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Position des Ankylosauria dans le super-ordre des Dinosauria</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme simplifié suivant représente seulement les taxons les plus importants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ankylosauria</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ankylosauria</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Taxonomie des Ankylosauria</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux familles sont classiquement distinguées parmi les ankylosauriens, les Ankylosauridae et les Nodosauridae, auxquelles s'ajoutent diverses familles et sous-familles qui ne font pas consensus entre les paléontologues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ankylosauria</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ankylosauria</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxonomie des Ankylosauria</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ankylosauridae basaux :
 Chuanqilong
 Gobisaurus
-Minmi[9]
-Minotaurasaurus[10]
+Minmi
+Minotaurasaurus
 Shamosaurus
-Ziapelta[11]
+Ziapelta
 Ankylosaurinae
 Ankylosaurus
 Euoplocephalus
@@ -666,17 +800,55 @@
 Tarchia
 Tianzhenosaurus
 Tsagantegia
-Zaraapelta[12]
-Nodosauridae
-Animantarx
+Zaraapelta</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ankylosauria</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ankylosauria</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Taxonomie des Ankylosauria</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nodosauridae</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Animantarx
 Borealopelta
 Cedarpelta (Ankylosauridae ?)
 Edmontonia
-Glyptodontopelta[13]
+Glyptodontopelta
 Hylaeosaurus
 Panoplosaurus
 Pawpawsaurus
-Peloroplites[14]
+Peloroplites
 Sauropelta
 Silvisaurus
 Stegopelta
@@ -684,20 +856,95 @@
 Struthiosaurinae
 Anoplosaurus
 Patagopelta
-Europelta[4]
+Europelta
 Hungarosaurus
-Struthiosaurus
-Polacanthidae
-(ou sous-famille des Polacanthinae rattachée au Nodosauridae)
+Struthiosaurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ankylosauria</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ankylosauria</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Taxonomie des Ankylosauria</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Polacanthidae</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(ou sous-famille des Polacanthinae rattachée au Nodosauridae)
 Gargoyleosaurus
 Gastonia
 Hoplitosaurus
 ? Mymoorapelta
 Polacanthus
-Taohelong[5]
-Scelidosauridae
-Ankylosauria incertae sedis et nomina dubia
-(sélection)
+Taohelong</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ankylosauria</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ankylosauria</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Taxonomie des Ankylosauria</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Ankylosauria incertae sedis et nomina dubia</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(sélection)
 Acanthopholis
 Aletopelta (Ankylosauridae ?)
 Antarctopelta
@@ -712,7 +959,7 @@
 Sauroplites
 Shanxia (Ankylosauridae ?)
 Texasetes (Nodosauridae ?)
-Zhejiangosaurus[15] (Nodosauridae ?)</t>
+Zhejiangosaurus (Nodosauridae ?)</t>
         </is>
       </c>
     </row>
